--- a/resource/wuhan-2019-ncov.xlsx
+++ b/resource/wuhan-2019-ncov.xlsx
@@ -43,21 +43,54 @@
     <t xml:space="preserve">湖北</t>
   </si>
   <si>
+    <t xml:space="preserve">廣東</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浙江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重慶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廣西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山東</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遼寧</t>
+  </si>
+  <si>
     <t xml:space="preserve">河北</t>
   </si>
   <si>
     <t xml:space="preserve">雲南</t>
   </si>
   <si>
-    <t xml:space="preserve">四川</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山東</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廣西</t>
-  </si>
-  <si>
     <t xml:space="preserve">貴州</t>
   </si>
   <si>
@@ -67,61 +100,28 @@
     <t xml:space="preserve">安徽</t>
   </si>
   <si>
-    <t xml:space="preserve">海南</t>
-  </si>
-  <si>
     <t xml:space="preserve">寧夏</t>
   </si>
   <si>
+    <t xml:space="preserve">澳門</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑龍江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江蘇</t>
+  </si>
+  <si>
     <t xml:space="preserve">吉林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重慶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">澳門</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台灣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">香港</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遼寧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廣東</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龍江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江蘇</t>
   </si>
   <si>
     <t xml:space="preserve">陝西</t>
@@ -433,10 +433,10 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -496,9 +496,11 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -507,9 +509,11 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>22</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
@@ -518,11 +522,9 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
@@ -531,11 +533,9 @@
         <v>10</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -555,9 +555,11 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
@@ -566,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -577,11 +579,9 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
@@ -601,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -611,10 +611,10 @@
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="B14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
@@ -625,7 +625,9 @@
       <c r="B15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
@@ -634,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
@@ -645,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -656,7 +658,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -703,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -713,7 +715,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -724,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -735,7 +737,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -746,11 +748,9 @@
         <v>29</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
@@ -759,10 +759,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -772,9 +772,11 @@
         <v>31</v>
       </c>
       <c r="B28" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
@@ -785,9 +787,7 @@
       <c r="B29" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
@@ -795,10 +795,10 @@
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>

--- a/resource/wuhan-2019-ncov.xlsx
+++ b/resource/wuhan-2019-ncov.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="paixu" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t xml:space="preserve">省份</t>
   </si>
@@ -43,88 +44,94 @@
     <t xml:space="preserve">湖北</t>
   </si>
   <si>
+    <t xml:space="preserve">河北</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雲南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山東</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廣西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貴州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">福建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安徽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧夏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吉林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重慶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">澳門</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陝西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遼寧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
     <t xml:space="preserve">廣東</t>
   </si>
   <si>
     <t xml:space="preserve">上海</t>
   </si>
   <si>
-    <t xml:space="preserve">北京</t>
+    <t xml:space="preserve">新疆</t>
   </si>
   <si>
     <t xml:space="preserve">浙江</t>
   </si>
   <si>
-    <t xml:space="preserve">重慶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廣西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山東</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遼寧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河北</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雲南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貴州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安徽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寧夏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">澳門</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台灣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">香港</t>
-  </si>
-  <si>
     <t xml:space="preserve">黑龍江</t>
   </si>
   <si>
     <t xml:space="preserve">江蘇</t>
   </si>
   <si>
-    <t xml:space="preserve">吉林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陝西</t>
+    <t xml:space="preserve">內蒙古</t>
   </si>
   <si>
     <t xml:space="preserve">甘肅</t>
@@ -134,12 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">西藏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">內蒙古</t>
   </si>
 </sst>
 </file>
@@ -278,7 +279,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,6 +313,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -430,13 +435,581 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">SUM(C3:C34)</f>
+        <v>634</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <f aca="false">SUM(D3:D34)</f>
+        <v>183</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <f aca="false">SUM(E3:E35)</f>
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <f aca="false">SUM(F3:F34)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>444</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="cellIs" priority="2" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D30">
+    <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" priority="5" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -460,23 +1033,23 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="n">
-        <f aca="false">SUM(B3:B30)</f>
-        <v>561</v>
+        <f aca="false">SUM(B3:B34)</f>
+        <v>634</v>
       </c>
       <c r="C2" s="6" t="n">
-        <f aca="false">SUM(C3:C30)</f>
-        <v>150</v>
+        <f aca="false">SUM(C3:C34)</f>
+        <v>183</v>
       </c>
       <c r="D2" s="6" t="n">
-        <f aca="false">SUM(D3:D30)</f>
-        <v>28</v>
+        <f aca="false">SUM(D3:D36)</f>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="n">
-        <f aca="false">SUM(E3:E30)</f>
+        <f aca="false">SUM(E3:E34)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -493,36 +1066,36 @@
     </row>
     <row r="4" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
@@ -530,45 +1103,47 @@
     </row>
     <row r="7" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>22</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -576,32 +1151,36 @@
     </row>
     <row r="11" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -609,45 +1188,47 @@
     </row>
     <row r="14" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -655,10 +1236,10 @@
     </row>
     <row r="18" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -666,10 +1247,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -677,45 +1258,47 @@
     </row>
     <row r="20" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>115</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -723,29 +1306,31 @@
     </row>
     <row r="24" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>1</v>
@@ -754,86 +1339,116 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="n">
-        <v>117</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>34</v>
-      </c>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>38</v>
+      <c r="A36" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B30">
+  <conditionalFormatting sqref="B2:B30 B32">
     <cfRule type="cellIs" priority="2" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
@@ -855,7 +1470,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
